--- a/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO_REC70 (NUEVO).xlsx
+++ b/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO_REC70 (NUEVO).xlsx
@@ -2460,7 +2460,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2534,7 +2534,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="85"/>
       <c r="F3" s="77">
